--- a/output_additional_column/1959.xlsx
+++ b/output_additional_column/1959.xlsx
@@ -490,7 +490,7 @@
         <v>63033</v>
       </c>
       <c r="F2" s="2" t="n">
-        <v>44703.76710925432</v>
+        <v>44703.79032847895</v>
       </c>
     </row>
     <row r="3">
@@ -512,7 +512,7 @@
       </c>
       <c r="E3" t="inlineStr"/>
       <c r="F3" s="2" t="n">
-        <v>44703.76710925432</v>
+        <v>44703.79032847895</v>
       </c>
     </row>
     <row r="4">
@@ -536,7 +536,7 @@
         <v>65031</v>
       </c>
       <c r="F4" s="2" t="n">
-        <v>44703.76710925432</v>
+        <v>44703.79032847895</v>
       </c>
     </row>
     <row r="5">
@@ -560,7 +560,7 @@
         <v>34554</v>
       </c>
       <c r="F5" s="2" t="n">
-        <v>44703.76710925432</v>
+        <v>44703.79032847895</v>
       </c>
     </row>
     <row r="6">
@@ -584,7 +584,7 @@
         <v>87195</v>
       </c>
       <c r="F6" s="2" t="n">
-        <v>44703.76710925432</v>
+        <v>44703.79032847895</v>
       </c>
     </row>
     <row r="7">
@@ -608,7 +608,7 @@
         <v>33762</v>
       </c>
       <c r="F7" s="2" t="n">
-        <v>44703.76710925432</v>
+        <v>44703.79032847895</v>
       </c>
     </row>
     <row r="8">
@@ -632,7 +632,7 @@
         <v>52332</v>
       </c>
       <c r="F8" s="2" t="n">
-        <v>44703.76710925432</v>
+        <v>44703.79032847895</v>
       </c>
     </row>
     <row r="9">
@@ -656,7 +656,7 @@
         <v>53537</v>
       </c>
       <c r="F9" s="2" t="n">
-        <v>44703.76710925432</v>
+        <v>44703.79032847895</v>
       </c>
     </row>
     <row r="10">
@@ -680,7 +680,7 @@
         <v>38285</v>
       </c>
       <c r="F10" s="2" t="n">
-        <v>44703.76710925432</v>
+        <v>44703.79032847895</v>
       </c>
     </row>
     <row r="11">
@@ -704,7 +704,7 @@
         <v>23295</v>
       </c>
       <c r="F11" s="2" t="n">
-        <v>44703.76710925432</v>
+        <v>44703.79032847895</v>
       </c>
     </row>
     <row r="12">
@@ -728,7 +728,7 @@
         <v>61250</v>
       </c>
       <c r="F12" s="2" t="n">
-        <v>44703.76710925432</v>
+        <v>44703.79032847895</v>
       </c>
     </row>
     <row r="13">
@@ -752,7 +752,7 @@
         <v>89120</v>
       </c>
       <c r="F13" s="2" t="n">
-        <v>44703.76710925432</v>
+        <v>44703.79032847895</v>
       </c>
     </row>
     <row r="14">
@@ -776,7 +776,7 @@
         <v>71367</v>
       </c>
       <c r="F14" s="2" t="n">
-        <v>44703.76710925432</v>
+        <v>44703.79032847895</v>
       </c>
     </row>
     <row r="15">
@@ -800,7 +800,7 @@
         <v>87771</v>
       </c>
       <c r="F15" s="2" t="n">
-        <v>44703.76710925432</v>
+        <v>44703.79032847895</v>
       </c>
     </row>
     <row r="16">
@@ -824,7 +824,7 @@
         <v>24221</v>
       </c>
       <c r="F16" s="2" t="n">
-        <v>44703.76710925432</v>
+        <v>44703.79032847895</v>
       </c>
     </row>
     <row r="17">
@@ -848,7 +848,7 @@
         <v>62859</v>
       </c>
       <c r="F17" s="2" t="n">
-        <v>44703.76710925432</v>
+        <v>44703.79032847895</v>
       </c>
     </row>
     <row r="18">
@@ -872,7 +872,7 @@
         <v>18690</v>
       </c>
       <c r="F18" s="2" t="n">
-        <v>44703.76710925432</v>
+        <v>44703.79032847895</v>
       </c>
     </row>
     <row r="19">
@@ -896,7 +896,7 @@
         <v>38829</v>
       </c>
       <c r="F19" s="2" t="n">
-        <v>44703.76710925432</v>
+        <v>44703.79032847895</v>
       </c>
     </row>
     <row r="20">
@@ -920,7 +920,7 @@
         <v>87771</v>
       </c>
       <c r="F20" s="2" t="n">
-        <v>44703.76710925432</v>
+        <v>44703.79032847895</v>
       </c>
     </row>
     <row r="21">
@@ -944,7 +944,7 @@
         <v>78353</v>
       </c>
       <c r="F21" s="2" t="n">
-        <v>44703.76710925432</v>
+        <v>44703.79032847895</v>
       </c>
     </row>
     <row r="22">
@@ -968,7 +968,7 @@
         <v>62450</v>
       </c>
       <c r="F22" s="2" t="n">
-        <v>44703.76710925432</v>
+        <v>44703.79032847895</v>
       </c>
     </row>
     <row r="23">
@@ -992,7 +992,7 @@
         <v>42243</v>
       </c>
       <c r="F23" s="2" t="n">
-        <v>44703.76710925432</v>
+        <v>44703.79032847895</v>
       </c>
     </row>
     <row r="24">
@@ -1016,7 +1016,7 @@
         <v>54753</v>
       </c>
       <c r="F24" s="2" t="n">
-        <v>44703.76710925432</v>
+        <v>44703.79032847895</v>
       </c>
     </row>
     <row r="25">
@@ -1040,7 +1040,7 @@
         <v>59052</v>
       </c>
       <c r="F25" s="2" t="n">
-        <v>44703.76710925432</v>
+        <v>44703.79032847895</v>
       </c>
     </row>
     <row r="26">
@@ -1064,7 +1064,7 @@
         <v>82576</v>
       </c>
       <c r="F26" s="2" t="n">
-        <v>44703.76710925432</v>
+        <v>44703.79032847895</v>
       </c>
     </row>
     <row r="27">
@@ -1088,7 +1088,7 @@
         <v>61180</v>
       </c>
       <c r="F27" s="2" t="n">
-        <v>44703.76710925432</v>
+        <v>44703.79032847895</v>
       </c>
     </row>
     <row r="28">
@@ -1112,7 +1112,7 @@
         <v>71367</v>
       </c>
       <c r="F28" s="2" t="n">
-        <v>44703.76710925432</v>
+        <v>44703.79032847895</v>
       </c>
     </row>
     <row r="29">
@@ -1136,7 +1136,7 @@
         <v>58113</v>
       </c>
       <c r="F29" s="2" t="n">
-        <v>44703.76710925432</v>
+        <v>44703.79032847895</v>
       </c>
     </row>
     <row r="30">
@@ -1160,7 +1160,7 @@
         <v>75032</v>
       </c>
       <c r="F30" s="2" t="n">
-        <v>44703.76710925432</v>
+        <v>44703.79032847895</v>
       </c>
     </row>
     <row r="31">
@@ -1184,7 +1184,7 @@
         <v>26887</v>
       </c>
       <c r="F31" s="2" t="n">
-        <v>44703.76710925432</v>
+        <v>44703.79032847895</v>
       </c>
     </row>
     <row r="32">
@@ -1208,7 +1208,7 @@
         <v>18690</v>
       </c>
       <c r="F32" s="2" t="n">
-        <v>44703.76710925432</v>
+        <v>44703.79032847895</v>
       </c>
     </row>
     <row r="33">
@@ -1232,7 +1232,7 @@
         <v>57957</v>
       </c>
       <c r="F33" s="2" t="n">
-        <v>44703.76710925432</v>
+        <v>44703.79032847895</v>
       </c>
     </row>
     <row r="34">
@@ -1256,7 +1256,7 @@
         <v>65492</v>
       </c>
       <c r="F34" s="2" t="n">
-        <v>44703.76710925432</v>
+        <v>44703.79032847895</v>
       </c>
     </row>
     <row r="35">
@@ -1280,7 +1280,7 @@
         <v>71706</v>
       </c>
       <c r="F35" s="2" t="n">
-        <v>44703.76710925432</v>
+        <v>44703.79032847895</v>
       </c>
     </row>
     <row r="36">
@@ -1304,7 +1304,7 @@
         <v>67786</v>
       </c>
       <c r="F36" s="2" t="n">
-        <v>44703.76710925432</v>
+        <v>44703.79032847895</v>
       </c>
     </row>
     <row r="37">
@@ -1328,7 +1328,7 @@
         <v>50664</v>
       </c>
       <c r="F37" s="2" t="n">
-        <v>44703.76710925432</v>
+        <v>44703.79032847895</v>
       </c>
     </row>
     <row r="38">
@@ -1352,7 +1352,7 @@
         <v>52854</v>
       </c>
       <c r="F38" s="2" t="n">
-        <v>44703.76710925432</v>
+        <v>44703.79032847895</v>
       </c>
     </row>
     <row r="39">
@@ -1376,7 +1376,7 @@
         <v>36732</v>
       </c>
       <c r="F39" s="2" t="n">
-        <v>44703.76710925432</v>
+        <v>44703.79032847895</v>
       </c>
     </row>
     <row r="40">
@@ -1400,7 +1400,7 @@
         <v>77520</v>
       </c>
       <c r="F40" s="2" t="n">
-        <v>44703.76710925432</v>
+        <v>44703.79032847895</v>
       </c>
     </row>
     <row r="41">
@@ -1424,7 +1424,7 @@
         <v>18690</v>
       </c>
       <c r="F41" s="2" t="n">
-        <v>44703.76710925432</v>
+        <v>44703.79032847895</v>
       </c>
     </row>
     <row r="42">
@@ -1448,7 +1448,7 @@
         <v>54984</v>
       </c>
       <c r="F42" s="2" t="n">
-        <v>44703.76710925432</v>
+        <v>44703.79032847895</v>
       </c>
     </row>
     <row r="43">
@@ -1472,7 +1472,7 @@
         <v>71232</v>
       </c>
       <c r="F43" s="2" t="n">
-        <v>44703.76710925432</v>
+        <v>44703.79032847895</v>
       </c>
     </row>
     <row r="44">
@@ -1496,7 +1496,7 @@
         <v>44911</v>
       </c>
       <c r="F44" s="2" t="n">
-        <v>44703.76710925432</v>
+        <v>44703.79032847895</v>
       </c>
     </row>
     <row r="45">
@@ -1520,7 +1520,7 @@
         <v>33051</v>
       </c>
       <c r="F45" s="2" t="n">
-        <v>44703.76710925432</v>
+        <v>44703.79032847895</v>
       </c>
     </row>
     <row r="46">
@@ -1544,7 +1544,7 @@
         <v>35701</v>
       </c>
       <c r="F46" s="2" t="n">
-        <v>44703.76710925432</v>
+        <v>44703.79032847895</v>
       </c>
     </row>
     <row r="47">
@@ -1568,7 +1568,7 @@
         <v>80982</v>
       </c>
       <c r="F47" s="2" t="n">
-        <v>44703.76710925432</v>
+        <v>44703.79032847895</v>
       </c>
     </row>
     <row r="48">
@@ -1592,7 +1592,7 @@
         <v>34242</v>
       </c>
       <c r="F48" s="2" t="n">
-        <v>44703.76710925432</v>
+        <v>44703.79032847895</v>
       </c>
     </row>
     <row r="49">
@@ -1616,7 +1616,7 @@
         <v>68805</v>
       </c>
       <c r="F49" s="2" t="n">
-        <v>44703.76710925432</v>
+        <v>44703.79032847895</v>
       </c>
     </row>
     <row r="50">
@@ -1640,7 +1640,7 @@
         <v>53154</v>
       </c>
       <c r="F50" s="2" t="n">
-        <v>44703.76710925432</v>
+        <v>44703.79032847895</v>
       </c>
     </row>
     <row r="51">
@@ -1664,7 +1664,7 @@
         <v>76320</v>
       </c>
       <c r="F51" s="2" t="n">
-        <v>44703.76710925432</v>
+        <v>44703.79032847895</v>
       </c>
     </row>
     <row r="52">
@@ -1688,7 +1688,7 @@
         <v>79823</v>
       </c>
       <c r="F52" s="2" t="n">
-        <v>44703.76710925432</v>
+        <v>44703.79032847895</v>
       </c>
     </row>
   </sheetData>
